--- a/records/2017-01-17-71-5.xlsx
+++ b/records/2017-01-17-71-5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="1940" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="15440" yWindow="580" windowWidth="13360" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>BaldRiseLineAndVolumeReduceParser</t>
   </si>
@@ -118,12 +118,16 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>WJParser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +138,32 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -160,8 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,39 +486,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>6104</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>3367</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>2712</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>10.3</v>
       </c>
     </row>
@@ -508,308 +543,328 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>798</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>367</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>427</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>-0.30299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>10565</v>
-      </c>
-      <c r="C5">
-        <v>5032</v>
-      </c>
-      <c r="D5">
-        <v>5443</v>
-      </c>
-      <c r="E5">
-        <v>90</v>
-      </c>
-      <c r="F5">
-        <v>-0.91100000000000003</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1446</v>
+      </c>
+      <c r="C5" s="2">
+        <v>646</v>
+      </c>
+      <c r="D5" s="2">
+        <v>770</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-0.69199999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1087</v>
+        <v>10565</v>
       </c>
       <c r="C6">
-        <v>514</v>
+        <v>5032</v>
       </c>
       <c r="D6">
-        <v>561</v>
+        <v>5443</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>-0.96099999999999997</v>
+        <v>-0.91100000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>610</v>
+        <v>1087</v>
       </c>
       <c r="C7">
-        <v>289</v>
+        <v>514</v>
       </c>
       <c r="D7">
-        <v>317</v>
+        <v>561</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>-1.0529999999999999</v>
+        <v>-0.96099999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>610</v>
+      </c>
+      <c r="C8">
+        <v>289</v>
+      </c>
+      <c r="D8">
+        <v>317</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>3189</v>
-      </c>
-      <c r="C8">
-        <v>1516</v>
-      </c>
-      <c r="D8">
-        <v>1383</v>
-      </c>
-      <c r="E8">
-        <v>290</v>
-      </c>
       <c r="F8">
-        <v>-1.2769999999999999</v>
+        <v>-1.0529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2583</v>
+        <v>3189</v>
       </c>
       <c r="C9">
-        <v>1191</v>
+        <v>1516</v>
       </c>
       <c r="D9">
-        <v>1320</v>
+        <v>1383</v>
       </c>
       <c r="E9">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="F9">
-        <v>-1.429</v>
+        <v>-1.2769999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1021</v>
+        <v>2583</v>
       </c>
       <c r="C10">
-        <v>395</v>
+        <v>1191</v>
       </c>
       <c r="D10">
-        <v>605</v>
+        <v>1320</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F10">
-        <v>-1.6639999999999999</v>
+        <v>-1.429</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>3195</v>
+        <v>1021</v>
       </c>
       <c r="C11">
-        <v>1379</v>
+        <v>395</v>
       </c>
       <c r="D11">
-        <v>1787</v>
+        <v>605</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>-1.7050000000000001</v>
+        <v>-1.6639999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>924</v>
+        <v>3195</v>
       </c>
       <c r="C12">
-        <v>341</v>
+        <v>1379</v>
       </c>
       <c r="D12">
-        <v>580</v>
+        <v>1787</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>-1.7629999999999999</v>
+        <v>-1.7050000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>2736</v>
+        <v>924</v>
       </c>
       <c r="C13">
-        <v>1126</v>
+        <v>341</v>
       </c>
       <c r="D13">
-        <v>1596</v>
+        <v>580</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>-1.86</v>
+        <v>-1.7629999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>1840</v>
+        <v>2736</v>
       </c>
       <c r="C14">
-        <v>762</v>
+        <v>1126</v>
       </c>
       <c r="D14">
-        <v>1057</v>
+        <v>1596</v>
       </c>
       <c r="E14">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>-2.2919999999999998</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>1191</v>
+        <v>1840</v>
       </c>
       <c r="C15">
-        <v>434</v>
+        <v>762</v>
       </c>
       <c r="D15">
-        <v>746</v>
+        <v>1057</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>-2.4279999999999999</v>
+        <v>-2.2919999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>1164</v>
+        <v>1191</v>
       </c>
       <c r="C16">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D16">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>-2.5760000000000001</v>
+        <v>-2.4279999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>140</v>
+        <v>1164</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>424</v>
       </c>
       <c r="D17">
-        <v>77</v>
+        <v>724</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>-8.9580000000000002</v>
+        <v>-2.5760000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
+        <v>-8.9580000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>-29.234000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F18">
-    <sortCondition descending="1" ref="F2:F18"/>
+  <sortState ref="A2:F19">
+    <sortCondition descending="1" ref="F2:F19"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
